--- a/tests/header_select/result_has_header.xlsx
+++ b/tests/header_select/result_has_header.xlsx
@@ -452,16 +452,8 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>header1</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>header2</t>
-        </is>
-      </c>
+      <c r="A1" s="2" t="inlineStr"/>
+      <c r="B1" s="2" t="inlineStr"/>
     </row>
     <row r="2" ht="12.8" customHeight="1" s="1">
       <c r="A2" s="2" t="n">

--- a/tests/header_select/result_has_header.xlsx
+++ b/tests/header_select/result_has_header.xlsx
@@ -20,6 +20,7 @@
   <fonts count="4">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -66,7 +67,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -443,53 +447,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="1">
-      <c r="A1" s="2" t="inlineStr"/>
-      <c r="B1" s="2" t="inlineStr"/>
-    </row>
-    <row r="2" ht="12.8" customHeight="1" s="1">
-      <c r="A2" s="2" t="n">
+    <row r="1" ht="12.8" customHeight="1" s="2">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>header1</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>header2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="2">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="1">
-      <c r="A3" s="2" t="n">
+    <row r="3" ht="12.8" customHeight="1" s="2">
+      <c r="A3" s="3" t="inlineStr"/>
+      <c r="B3" s="3" t="inlineStr"/>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="2">
+      <c r="A4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>ooh</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="2">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="1">
-      <c r="A4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>good</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="12.8" customHeight="1" s="1">
-      <c r="A5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="2">
+      <c r="A7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>ok</t>
         </is>

--- a/tests/header_select/result_has_header.xlsx
+++ b/tests/header_select/result_has_header.xlsx
@@ -478,8 +478,8 @@
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="2">
-      <c r="A3" s="3" t="inlineStr"/>
-      <c r="B3" s="3" t="inlineStr"/>
+      <c r="A3" s="3" t="n"/>
+      <c r="B3" s="3" t="n"/>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="2">
       <c r="A4" s="3" t="n">
@@ -501,10 +501,7 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-    </row>
+    <row r="6"/>
     <row r="7" ht="12.8" customHeight="1" s="2">
       <c r="A7" s="3" t="n">
         <v>6</v>
